--- a/SSYSADD1 DOCU/Diagrams/Use Case Description.xlsx
+++ b/SSYSADD1 DOCU/Diagrams/Use Case Description.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>Use Case</t>
   </si>
@@ -324,9 +324,6 @@
     <t>User wants to view the details of the dermatologist</t>
   </si>
   <si>
-    <t>Look for optimal dermatologist</t>
-  </si>
-  <si>
     <t>User can view the details of a dermatologist, including the location of his clinic</t>
   </si>
   <si>
@@ -340,6 +337,57 @@
   </si>
   <si>
     <t>Dermatologist can see details of the previous appointments of a patient and can view the information of the patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for optimal dermatologist </t>
+  </si>
+  <si>
+    <t>Quantify Sweat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dermatologist will quantify sweat of patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dermatologist will quantify the sweat using the sudomotor in order to gain data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatologist, Patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Dermatologist will quantify sweat of patient with the use of the device, sudomotor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Systen will quantify the sweat and give out data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set a Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Patient will choose a dermatologist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 System will get details of the dermatologist from the database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 System will list the details of the dermatologist. Example: Name, Clinic Address, Contact Number, and Schedule  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Dermatologist will click the patient that scheduled him </t>
+  </si>
+  <si>
+    <t>1.1 System will get details of the patient from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 System will list the details of the patient. Example: Name, Contact Number, Address, sex, and scheduled appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatologist </t>
   </si>
 </sst>
 </file>
@@ -371,12 +419,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -485,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,62 +565,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,17 +937,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:C111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -900,83 +955,83 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -987,7 +1042,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -996,14 +1051,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1015,95 +1070,104 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+    </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1114,7 +1178,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1123,14 +1187,14 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
@@ -1139,116 +1203,121 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="19"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1259,7 +1328,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1268,21 +1337,21 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>49</v>
@@ -1292,91 +1361,100 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+    </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -1387,7 +1465,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
@@ -1396,7 +1474,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
@@ -1405,7 +1483,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1492,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1501,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
@@ -1435,91 +1513,100 @@
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+    </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="21"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="21"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="26"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -1530,7 +1617,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="8" t="s">
         <v>78</v>
       </c>
@@ -1539,7 +1626,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="8" t="s">
         <v>80</v>
       </c>
@@ -1548,14 +1635,14 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="8" t="s">
         <v>83</v>
       </c>
@@ -1567,91 +1654,100 @@
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+    </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="21"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="21"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="21"/>
+      <c r="B89" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="21"/>
+      <c r="B90" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="21"/>
+      <c r="B91" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="21"/>
+      <c r="C92" s="10"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="21"/>
+      <c r="C93" s="10"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="21"/>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -1661,18 +1757,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
@@ -1680,87 +1782,100 @@
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+    </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="21"/>
+      <c r="C103" s="10"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" s="21"/>
+      <c r="B104" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" s="21"/>
+      <c r="B105" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="10"/>
     </row>
     <row r="106" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="21"/>
+      <c r="B106" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="10"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C107" s="21"/>
+      <c r="B107" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="10"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="21"/>
+      <c r="C108" s="10"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
+      <c r="B109" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="10"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="21"/>
+      <c r="B110" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="10"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="26"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -1770,18 +1885,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
+      <c r="C114" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
@@ -1789,16 +1910,194 @@
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="21"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="10"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="10"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="10"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
+  <mergeCells count="90">
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="A112:A115"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -1815,64 +2114,16 @@
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SSYSADD1 DOCU/Diagrams/Use Case Description.xlsx
+++ b/SSYSADD1 DOCU/Diagrams/Use Case Description.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
   <si>
     <t>Use Case</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dermatologist </t>
+  </si>
+  <si>
+    <t>## HISTORY</t>
   </si>
 </sst>
 </file>
@@ -937,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1065,7 @@
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1193,12 +1196,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1903,7 +1906,9 @@
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
-      <c r="B115" s="8"/>
+      <c r="B115" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="C115" s="8"/>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1913,138 +1918,153 @@
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B119" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C118" s="10"/>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="C119" s="10"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C120" s="10"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C121" s="10"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="10"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="C123" s="10"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B124" s="9"/>
       <c r="C124" s="10"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C125" s="10"/>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="10"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
+      <c r="B127" s="11"/>
+      <c r="C127" s="12"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="8" t="s">
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="14"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="10"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B132:C132"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="B126:C126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="A128:A131"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
